--- a/word/软件开发项目表.xlsx
+++ b/word/软件开发项目表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" tabRatio="364"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="364" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="软件项目一" sheetId="1" r:id="rId1"/>
     <sheet name="软件项目二" sheetId="2" r:id="rId2"/>
     <sheet name="软件项目三" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="590">
   <si>
     <t>项目名称</t>
   </si>
@@ -1889,6 +1889,21 @@
   </si>
   <si>
     <t>预算10万元之内买套跑腿或者打车软件APP源码，要求原生开发的，后台是PHP或者JAVA，带加盟机制或者三级分销功能的优先，符合要求的请联系我看下演示吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2485,16 +2500,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="35" style="4" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="71.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="20.25" customHeight="1">
@@ -2514,7 +2529,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="2" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2526,6 +2541,9 @@
       </c>
       <c r="D2" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -2691,7 +2709,7 @@
       <c r="AW4"/>
       <c r="AX4"/>
     </row>
-    <row r="5" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="5" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2703,6 +2721,9 @@
       </c>
       <c r="D5" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -2763,6 +2784,9 @@
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -2809,7 +2833,7 @@
       <c r="AW6"/>
       <c r="AX6"/>
     </row>
-    <row r="7" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="7" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2868,7 +2892,7 @@
       <c r="AW7"/>
       <c r="AX7"/>
     </row>
-    <row r="8" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="8" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2927,7 +2951,7 @@
       <c r="AW8"/>
       <c r="AX8"/>
     </row>
-    <row r="9" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="9" spans="1:50" s="1" customFormat="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2987,7 +3011,7 @@
       <c r="AW9"/>
       <c r="AX9"/>
     </row>
-    <row r="10" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="10" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -3047,7 +3071,7 @@
       <c r="AW10"/>
       <c r="AX10"/>
     </row>
-    <row r="11" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="11" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3106,7 +3130,7 @@
       <c r="AW11"/>
       <c r="AX11"/>
     </row>
-    <row r="12" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="12" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3165,7 +3189,7 @@
       <c r="AW12"/>
       <c r="AX12"/>
     </row>
-    <row r="13" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="13" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3177,6 +3201,9 @@
       </c>
       <c r="D13" s="7" t="s">
         <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -3224,7 +3251,7 @@
       <c r="AW13"/>
       <c r="AX13"/>
     </row>
-    <row r="14" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="14" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3236,6 +3263,9 @@
       </c>
       <c r="D14" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -3283,7 +3313,7 @@
       <c r="AW14"/>
       <c r="AX14"/>
     </row>
-    <row r="15" spans="1:50" s="1" customFormat="1" ht="409.6">
+    <row r="15" spans="1:50" s="1" customFormat="1" ht="409.5">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3295,6 +3325,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>584</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -3519,7 +3552,7 @@
       <c r="AW18"/>
       <c r="AX18"/>
     </row>
-    <row r="19" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="19" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3531,6 +3564,9 @@
       </c>
       <c r="D19" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -3755,7 +3791,7 @@
       <c r="AW22"/>
       <c r="AX22"/>
     </row>
-    <row r="23" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="23" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3814,7 +3850,7 @@
       <c r="AW23"/>
       <c r="AX23"/>
     </row>
-    <row r="24" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="24" spans="1:50" s="1" customFormat="1" ht="40.5">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4050,7 +4086,7 @@
       <c r="AW27"/>
       <c r="AX27"/>
     </row>
-    <row r="28" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="28" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4109,7 +4145,7 @@
       <c r="AW28"/>
       <c r="AX28"/>
     </row>
-    <row r="29" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="29" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4168,7 +4204,7 @@
       <c r="AW29"/>
       <c r="AX29"/>
     </row>
-    <row r="30" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="30" spans="1:50" s="1" customFormat="1">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4345,7 +4381,7 @@
       <c r="AW32"/>
       <c r="AX32"/>
     </row>
-    <row r="33" spans="1:50" s="1" customFormat="1" ht="57.6">
+    <row r="33" spans="1:50" s="1" customFormat="1" ht="54">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4404,7 +4440,7 @@
       <c r="AW33"/>
       <c r="AX33"/>
     </row>
-    <row r="34" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="34" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4463,7 +4499,7 @@
       <c r="AW34"/>
       <c r="AX34"/>
     </row>
-    <row r="35" spans="1:50" s="1" customFormat="1" ht="57.6">
+    <row r="35" spans="1:50" s="1" customFormat="1" ht="54">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4581,7 +4617,7 @@
       <c r="AW36"/>
       <c r="AX36"/>
     </row>
-    <row r="37" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="37" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4699,7 +4735,7 @@
       <c r="AW38"/>
       <c r="AX38"/>
     </row>
-    <row r="39" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="39" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -5053,7 +5089,7 @@
       <c r="AW44"/>
       <c r="AX44"/>
     </row>
-    <row r="45" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="45" spans="1:50" s="1" customFormat="1" ht="40.5">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5112,7 +5148,7 @@
       <c r="AW45"/>
       <c r="AX45"/>
     </row>
-    <row r="46" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="46" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5349,7 +5385,7 @@
       <c r="AW49"/>
       <c r="AX49"/>
     </row>
-    <row r="50" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="50" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5585,7 +5621,7 @@
       <c r="AW53"/>
       <c r="AX53"/>
     </row>
-    <row r="54" spans="1:50" s="1" customFormat="1" ht="129.6">
+    <row r="54" spans="1:50" s="1" customFormat="1" ht="121.5">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -5703,7 +5739,7 @@
       <c r="AW55"/>
       <c r="AX55"/>
     </row>
-    <row r="56" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="56" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -5762,7 +5798,7 @@
       <c r="AW56"/>
       <c r="AX56"/>
     </row>
-    <row r="57" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="57" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -5880,7 +5916,7 @@
       <c r="AW58"/>
       <c r="AX58"/>
     </row>
-    <row r="59" spans="1:50" s="1" customFormat="1" ht="72">
+    <row r="59" spans="1:50" s="1" customFormat="1" ht="54">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -5998,7 +6034,7 @@
       <c r="AW60"/>
       <c r="AX60"/>
     </row>
-    <row r="61" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="61" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -6057,7 +6093,7 @@
       <c r="AW61"/>
       <c r="AX61"/>
     </row>
-    <row r="62" spans="1:50" s="1" customFormat="1" ht="86.4">
+    <row r="62" spans="1:50" s="1" customFormat="1" ht="81">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -6116,7 +6152,7 @@
       <c r="AW62"/>
       <c r="AX62"/>
     </row>
-    <row r="63" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="63" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -6352,7 +6388,7 @@
       <c r="AW66"/>
       <c r="AX66"/>
     </row>
-    <row r="67" spans="1:50" s="1" customFormat="1" ht="409.6">
+    <row r="67" spans="1:50" s="1" customFormat="1" ht="391.5">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -6647,7 +6683,7 @@
       <c r="AW71"/>
       <c r="AX71"/>
     </row>
-    <row r="72" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="72" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -6706,7 +6742,7 @@
       <c r="AW72"/>
       <c r="AX72"/>
     </row>
-    <row r="73" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="73" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -6765,7 +6801,7 @@
       <c r="AW73"/>
       <c r="AX73"/>
     </row>
-    <row r="74" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="74" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -6942,7 +6978,7 @@
       <c r="AW76"/>
       <c r="AX76"/>
     </row>
-    <row r="77" spans="1:50" s="1" customFormat="1" ht="72">
+    <row r="77" spans="1:50" s="1" customFormat="1" ht="54">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -7014,6 +7050,9 @@
       <c r="D78" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
@@ -7119,7 +7158,7 @@
       <c r="AW79"/>
       <c r="AX79"/>
     </row>
-    <row r="80" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="80" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -7355,7 +7394,7 @@
       <c r="AW83"/>
       <c r="AX83"/>
     </row>
-    <row r="84" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="84" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -7414,7 +7453,7 @@
       <c r="AW84"/>
       <c r="AX84"/>
     </row>
-    <row r="85" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="85" spans="1:50" s="1" customFormat="1">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -7532,7 +7571,7 @@
       <c r="AW86"/>
       <c r="AX86"/>
     </row>
-    <row r="87" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="87" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -7650,7 +7689,7 @@
       <c r="AW88"/>
       <c r="AX88"/>
     </row>
-    <row r="89" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="89" spans="1:50" s="1" customFormat="1" ht="40.5">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -7768,7 +7807,7 @@
       <c r="AW90"/>
       <c r="AX90"/>
     </row>
-    <row r="91" spans="1:50" s="1" customFormat="1" ht="72">
+    <row r="91" spans="1:50" s="1" customFormat="1" ht="54">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -7827,7 +7866,7 @@
       <c r="AW91"/>
       <c r="AX91"/>
     </row>
-    <row r="92" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="92" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -7958,6 +7997,9 @@
       <c r="D94" s="7" t="s">
         <v>180</v>
       </c>
+      <c r="E94" s="1" t="s">
+        <v>588</v>
+      </c>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
@@ -8004,7 +8046,7 @@
       <c r="AW94"/>
       <c r="AX94"/>
     </row>
-    <row r="95" spans="1:50" s="1" customFormat="1" ht="86.4">
+    <row r="95" spans="1:50" s="1" customFormat="1" ht="81">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -8181,7 +8223,7 @@
       <c r="AW97"/>
       <c r="AX97"/>
     </row>
-    <row r="98" spans="1:50" s="1" customFormat="1" ht="57.6">
+    <row r="98" spans="1:50" s="1" customFormat="1" ht="54">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -8240,7 +8282,7 @@
       <c r="AW98"/>
       <c r="AX98"/>
     </row>
-    <row r="99" spans="1:50" s="1" customFormat="1" ht="57.6">
+    <row r="99" spans="1:50" s="1" customFormat="1" ht="54">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -8476,7 +8518,7 @@
       <c r="AW102"/>
       <c r="AX102"/>
     </row>
-    <row r="103" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="103" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -8653,7 +8695,7 @@
       <c r="AW105"/>
       <c r="AX105"/>
     </row>
-    <row r="106" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="106" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -8712,7 +8754,7 @@
       <c r="AW106"/>
       <c r="AX106"/>
     </row>
-    <row r="107" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="107" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -8948,7 +8990,7 @@
       <c r="AW110"/>
       <c r="AX110"/>
     </row>
-    <row r="111" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="111" spans="1:50" s="1" customFormat="1" ht="40.5">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -9007,7 +9049,7 @@
       <c r="AW111"/>
       <c r="AX111"/>
     </row>
-    <row r="112" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="112" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -9125,7 +9167,7 @@
       <c r="AW113"/>
       <c r="AX113"/>
     </row>
-    <row r="114" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="114" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -9243,7 +9285,7 @@
       <c r="AW115"/>
       <c r="AX115"/>
     </row>
-    <row r="116" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="116" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -9302,7 +9344,7 @@
       <c r="AW116"/>
       <c r="AX116"/>
     </row>
-    <row r="117" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="117" spans="1:50" s="1" customFormat="1" ht="40.5">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -9314,6 +9356,9 @@
       </c>
       <c r="D117" s="7" t="s">
         <v>224</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -9361,7 +9406,7 @@
       <c r="AW117"/>
       <c r="AX117"/>
     </row>
-    <row r="118" spans="1:50" s="1" customFormat="1" ht="57.6">
+    <row r="118" spans="1:50" s="1" customFormat="1" ht="54">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -9420,7 +9465,7 @@
       <c r="AW118"/>
       <c r="AX118"/>
     </row>
-    <row r="119" spans="1:50" s="1" customFormat="1" ht="28.8">
+    <row r="119" spans="1:50" s="1" customFormat="1" ht="27">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -9479,7 +9524,7 @@
       <c r="AW119"/>
       <c r="AX119"/>
     </row>
-    <row r="120" spans="1:50" s="1" customFormat="1" ht="43.2">
+    <row r="120" spans="1:50" s="1" customFormat="1" ht="40.5">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -9552,16 +9597,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C73"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1">
@@ -9594,7 +9639,9 @@
       <c r="D2" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6">
@@ -9611,7 +9658,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2">
+    <row r="4" spans="1:5" ht="40.5">
       <c r="A4" s="6">
         <v>122</v>
       </c>
@@ -9641,7 +9688,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="28.8">
+    <row r="6" spans="1:5" ht="27">
       <c r="A6" s="6">
         <v>124</v>
       </c>
@@ -9716,7 +9763,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="43.2">
+    <row r="11" spans="1:5" ht="40.5">
       <c r="A11" s="6">
         <v>129</v>
       </c>
@@ -9731,7 +9778,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="28.8">
+    <row r="12" spans="1:5" ht="27">
       <c r="A12" s="6">
         <v>130</v>
       </c>
@@ -9746,7 +9793,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="28.8">
+    <row r="13" spans="1:5" ht="27">
       <c r="A13" s="6">
         <v>131</v>
       </c>
@@ -9806,7 +9853,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="28.8">
+    <row r="17" spans="1:5" ht="27">
       <c r="A17" s="6">
         <v>135</v>
       </c>
@@ -9821,7 +9868,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="28.8">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>136</v>
       </c>
@@ -9836,7 +9883,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="28.8">
+    <row r="19" spans="1:5" ht="27">
       <c r="A19" s="6">
         <v>137</v>
       </c>
@@ -9866,7 +9913,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="28.8">
+    <row r="21" spans="1:5" ht="27">
       <c r="A21" s="6">
         <v>139</v>
       </c>
@@ -9881,7 +9928,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="28.8">
+    <row r="22" spans="1:5" ht="27">
       <c r="A22" s="6">
         <v>140</v>
       </c>
@@ -9911,7 +9958,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="28.8">
+    <row r="24" spans="1:5" ht="27">
       <c r="A24" s="6">
         <v>142</v>
       </c>
@@ -9926,7 +9973,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" ht="28.8">
+    <row r="25" spans="1:5" ht="27">
       <c r="A25" s="6">
         <v>143</v>
       </c>
@@ -9941,7 +9988,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="43.2">
+    <row r="26" spans="1:5" ht="40.5">
       <c r="A26" s="6">
         <v>144</v>
       </c>
@@ -9956,7 +10003,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="86.4">
+    <row r="27" spans="1:5" ht="81">
       <c r="A27" s="6">
         <v>145</v>
       </c>
@@ -9971,7 +10018,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" ht="28.8">
+    <row r="28" spans="1:5" ht="27">
       <c r="A28" s="6">
         <v>146</v>
       </c>
@@ -10001,7 +10048,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="172.8">
+    <row r="30" spans="1:5" ht="162">
       <c r="A30" s="6">
         <v>148</v>
       </c>
@@ -10121,7 +10168,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" ht="72">
+    <row r="38" spans="1:5" ht="67.5">
       <c r="A38" s="6">
         <v>156</v>
       </c>
@@ -10136,7 +10183,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" ht="28.8">
+    <row r="39" spans="1:5">
       <c r="A39" s="6">
         <v>157</v>
       </c>
@@ -10181,7 +10228,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="28.8">
+    <row r="42" spans="1:5" ht="27">
       <c r="A42" s="6">
         <v>160</v>
       </c>
@@ -10196,7 +10243,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="100.8">
+    <row r="43" spans="1:5" ht="81">
       <c r="A43" s="6">
         <v>161</v>
       </c>
@@ -10211,7 +10258,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="72">
+    <row r="44" spans="1:5" ht="67.5">
       <c r="A44" s="6">
         <v>162</v>
       </c>
@@ -10241,7 +10288,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="28.8">
+    <row r="46" spans="1:5" ht="27">
       <c r="A46" s="6">
         <v>164</v>
       </c>
@@ -10271,7 +10318,7 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="28.8">
+    <row r="48" spans="1:5" ht="27">
       <c r="A48" s="6">
         <v>166</v>
       </c>
@@ -10391,7 +10438,7 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="72">
+    <row r="56" spans="1:5" ht="67.5">
       <c r="A56" s="6">
         <v>174</v>
       </c>
@@ -10421,7 +10468,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="57.6">
+    <row r="58" spans="1:5" ht="54">
       <c r="A58" s="6">
         <v>176</v>
       </c>
@@ -10449,9 +10496,11 @@
       <c r="D59" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="72">
+      <c r="E59" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="67.5">
       <c r="A60" s="6">
         <v>178</v>
       </c>
@@ -10466,7 +10515,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="129.6">
+    <row r="61" spans="1:5" ht="121.5">
       <c r="A61" s="6">
         <v>179</v>
       </c>
@@ -10496,7 +10545,7 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="28.8">
+    <row r="63" spans="1:5" ht="27">
       <c r="A63" s="6">
         <v>181</v>
       </c>
@@ -10526,7 +10575,7 @@
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" ht="28.8">
+    <row r="65" spans="1:5" ht="27">
       <c r="A65" s="6">
         <v>183</v>
       </c>
@@ -10541,7 +10590,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="28.8">
+    <row r="66" spans="1:5" ht="27">
       <c r="A66" s="6">
         <v>184</v>
       </c>
@@ -10556,7 +10605,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" ht="28.8">
+    <row r="67" spans="1:5" ht="27">
       <c r="A67" s="6">
         <v>185</v>
       </c>
@@ -10571,7 +10620,7 @@
       </c>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" ht="28.8">
+    <row r="68" spans="1:5">
       <c r="A68" s="6">
         <v>186</v>
       </c>
@@ -10586,7 +10635,7 @@
       </c>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" ht="57.6">
+    <row r="69" spans="1:5" ht="54">
       <c r="A69" s="6">
         <v>187</v>
       </c>
@@ -10599,9 +10648,11 @@
       <c r="D69" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" ht="43.2">
+      <c r="E69" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="27">
       <c r="A70" s="6">
         <v>188</v>
       </c>
@@ -10614,9 +10665,11 @@
       <c r="D70" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="43.2">
+      <c r="E70" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="40.5">
       <c r="A71" s="6">
         <v>189</v>
       </c>
@@ -10629,7 +10682,9 @@
       <c r="D71" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="6">
@@ -10646,7 +10701,7 @@
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" ht="28.8">
+    <row r="73" spans="1:5" ht="27">
       <c r="A73" s="6">
         <v>191</v>
       </c>
@@ -10659,7 +10714,9 @@
       <c r="D73" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10743,16 +10800,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C107" sqref="C2:C107"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1">
@@ -10785,7 +10842,9 @@
       <c r="D2" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
@@ -10860,7 +10919,9 @@
       <c r="D7" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
@@ -10892,7 +10953,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="28.8">
+    <row r="10" spans="1:5" ht="27">
       <c r="A10" s="1">
         <v>200</v>
       </c>
@@ -11070,7 +11131,9 @@
       <c r="D21" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
@@ -11147,7 +11210,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="43.2">
+    <row r="27" spans="1:5" ht="40.5">
       <c r="A27" s="1">
         <v>217</v>
       </c>
@@ -11252,7 +11315,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="28.8">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>224</v>
       </c>
@@ -11492,7 +11555,7 @@
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="28.8">
+    <row r="50" spans="1:5" ht="27">
       <c r="A50" s="1">
         <v>240</v>
       </c>
@@ -11627,7 +11690,7 @@
       </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="28.8">
+    <row r="59" spans="1:5" ht="27">
       <c r="A59" s="1">
         <v>249</v>
       </c>
@@ -11657,7 +11720,7 @@
       </c>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" ht="43.2">
+    <row r="61" spans="1:5" ht="40.5">
       <c r="A61" s="1">
         <v>251</v>
       </c>
@@ -11672,7 +11735,7 @@
       </c>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" ht="28.8">
+    <row r="62" spans="1:5" ht="27">
       <c r="A62" s="1">
         <v>252</v>
       </c>
@@ -11732,7 +11795,7 @@
       </c>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="28.8">
+    <row r="66" spans="1:5" ht="27">
       <c r="A66" s="1">
         <v>256</v>
       </c>
@@ -11747,7 +11810,7 @@
       </c>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" ht="28.8">
+    <row r="67" spans="1:5" ht="27">
       <c r="A67" s="1">
         <v>257</v>
       </c>
@@ -11760,7 +11823,9 @@
       <c r="D67" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
@@ -11897,7 +11962,7 @@
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" ht="28.8">
+    <row r="77" spans="1:5" ht="27">
       <c r="A77" s="1">
         <v>267</v>
       </c>
@@ -12002,7 +12067,7 @@
       </c>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" ht="43.2">
+    <row r="84" spans="1:5" ht="27">
       <c r="A84" s="1">
         <v>274</v>
       </c>
@@ -12047,7 +12112,7 @@
       </c>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" ht="72">
+    <row r="87" spans="1:5" ht="54">
       <c r="A87" s="1">
         <v>277</v>
       </c>
@@ -12137,7 +12202,7 @@
       </c>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" ht="28.8">
+    <row r="93" spans="1:5" ht="27">
       <c r="A93" s="1">
         <v>283</v>
       </c>
@@ -12182,7 +12247,7 @@
       </c>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" ht="43.2">
+    <row r="96" spans="1:5" ht="40.5">
       <c r="A96" s="1">
         <v>286</v>
       </c>
@@ -12242,7 +12307,7 @@
       </c>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" ht="43.2">
+    <row r="100" spans="1:5" ht="27">
       <c r="A100" s="1">
         <v>290</v>
       </c>
@@ -12272,7 +12337,7 @@
       </c>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" ht="43.2">
+    <row r="102" spans="1:5" ht="40.5">
       <c r="A102" s="1">
         <v>292</v>
       </c>
@@ -12287,7 +12352,7 @@
       </c>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" ht="28.8">
+    <row r="103" spans="1:5" ht="27">
       <c r="A103" s="1">
         <v>293</v>
       </c>
@@ -12360,7 +12425,9 @@
       <c r="D107" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
